--- a/data/trans_orig/P21B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21B-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDEE3A9F-E98C-4BF2-B53F-5379A609553B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F454EA7D-7051-4160-9263-68F08645A568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{91E16D95-034D-49F7-AA4F-4ED72F367897}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A3753828-8197-493A-9631-9FBA6DCE1560}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="769">
   <si>
     <t>Población según tipo de servicio de urgencias utilizado en 2007 (Tasa respuesta: 20,73%)</t>
   </si>
@@ -95,13 +95,13 @@
     <t>3,83%</t>
   </si>
   <si>
-    <t>19,27%</t>
+    <t>17,82%</t>
   </si>
   <si>
     <t>2,22%</t>
   </si>
   <si>
-    <t>11,4%</t>
+    <t>10,88%</t>
   </si>
   <si>
     <t>Un servicio privado urgencia</t>
@@ -116,25 +116,25 @@
     <t>14,8%</t>
   </si>
   <si>
-    <t>68,21%</t>
+    <t>72,03%</t>
   </si>
   <si>
     <t>25,96%</t>
   </si>
   <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
   </si>
   <si>
     <t>31,63%</t>
   </si>
   <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
   </si>
   <si>
     <t>Un hospital de la Seguridad Social/S.A.S. (Servicio Andaluz</t>
@@ -143,7 +143,7 @@
     <t>60,52%</t>
   </si>
   <si>
-    <t>31,79%</t>
+    <t>27,97%</t>
   </si>
   <si>
     <t>85,2%</t>
@@ -152,19 +152,19 @@
     <t>70,21%</t>
   </si>
   <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
   </si>
   <si>
     <t>66,14%</t>
   </si>
   <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
   </si>
   <si>
     <t>100%</t>
@@ -176,7 +176,7 @@
     <t>1,91%</t>
   </si>
   <si>
-    <t>5,84%</t>
+    <t>5,75%</t>
   </si>
   <si>
     <t>1,68%</t>
@@ -185,2109 +185,2103 @@
     <t>0,88%</t>
   </si>
   <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según tipo de servicio de urgencias utilizado en 2012 (Tasa respuesta: 24,07%)</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>Población según tipo de servicio de urgencias utilizado en 2015 (Tasa respuesta: 18,48%)</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>Población según tipo de servicio de urgencias utilizado en 2023 (Tasa respuesta: 22,96%)</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
     <t>3,09%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según tipo de servicio de urgencias utilizado en 2012 (Tasa respuesta: 24,07%)</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>Población según tipo de servicio de urgencias utilizado en 2015 (Tasa respuesta: 18,48%)</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
   </si>
   <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>Población según tipo de servicio de urgencias utilizado en 2023 (Tasa respuesta: 22,96%)</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
     <t>5,18%</t>
   </si>
   <si>
@@ -2325,9 +2319,6 @@
   </si>
   <si>
     <t>18,03%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
   </si>
   <si>
     <t>20,43%</t>
@@ -2766,7 +2757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5A9777-1CF8-4E9D-B6F1-E07F12C6A0EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF8A34D-95B0-4F48-99FC-04D7AD8AC6BC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3372,7 +3363,7 @@
         <v>55</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -3381,13 +3372,13 @@
         <v>64456</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,13 +3393,13 @@
         <v>65671</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H14" s="7">
         <v>77</v>
@@ -3417,13 +3408,13 @@
         <v>78619</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M14" s="7">
         <v>143</v>
@@ -3432,13 +3423,13 @@
         <v>144290</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,7 +3485,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3512,7 +3503,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3527,7 +3518,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3542,7 +3533,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,13 +3548,13 @@
         <v>1071</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -3572,13 +3563,13 @@
         <v>3332</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -3587,13 +3578,13 @@
         <v>4403</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,13 +3599,13 @@
         <v>2136</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -3623,13 +3614,13 @@
         <v>3562</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -3638,13 +3629,13 @@
         <v>5698</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,13 +3650,13 @@
         <v>55116</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H19" s="7">
         <v>101</v>
@@ -3674,13 +3665,13 @@
         <v>105933</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M19" s="7">
         <v>152</v>
@@ -3689,13 +3680,13 @@
         <v>161050</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,13 +3701,13 @@
         <v>127293</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H20" s="7">
         <v>161</v>
@@ -3725,13 +3716,13 @@
         <v>171105</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>279</v>
@@ -3740,13 +3731,13 @@
         <v>298397</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,7 +3793,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3820,7 +3811,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -3829,13 +3820,13 @@
         <v>740</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -3844,13 +3835,13 @@
         <v>740</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,13 +3856,13 @@
         <v>3751</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -3880,13 +3871,13 @@
         <v>2496</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -3895,13 +3886,13 @@
         <v>6246</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,13 +3907,13 @@
         <v>7263</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -3931,13 +3922,13 @@
         <v>5737</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M24" s="7">
         <v>12</v>
@@ -3946,13 +3937,13 @@
         <v>13000</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +3958,13 @@
         <v>18740</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H25" s="7">
         <v>43</v>
@@ -3982,13 +3973,13 @@
         <v>41295</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M25" s="7">
         <v>63</v>
@@ -3997,13 +3988,13 @@
         <v>60035</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,13 +4009,13 @@
         <v>93901</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H26" s="7">
         <v>128</v>
@@ -4033,13 +4024,13 @@
         <v>126271</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M26" s="7">
         <v>216</v>
@@ -4048,13 +4039,13 @@
         <v>220172</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,7 +4101,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4122,13 +4113,13 @@
         <v>838</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -4137,13 +4128,13 @@
         <v>2149</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -4158,7 +4149,7 @@
         <v>147</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,13 +4164,13 @@
         <v>5370</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -4188,13 +4179,13 @@
         <v>6954</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -4203,10 +4194,10 @@
         <v>12325</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>156</v>
@@ -4257,10 +4248,10 @@
         <v>162</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,13 +4266,13 @@
         <v>28057</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H31" s="7">
         <v>40</v>
@@ -4290,13 +4281,13 @@
         <v>41695</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M31" s="7">
         <v>69</v>
@@ -4305,13 +4296,13 @@
         <v>69751</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,13 +4317,13 @@
         <v>98937</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H32" s="7">
         <v>167</v>
@@ -4341,13 +4332,13 @@
         <v>175748</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M32" s="7">
         <v>274</v>
@@ -4356,13 +4347,13 @@
         <v>274686</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4430,13 +4421,13 @@
         <v>2686</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -4445,13 +4436,13 @@
         <v>2889</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M34" s="7">
         <v>6</v>
@@ -4460,10 +4451,10 @@
         <v>5575</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>189</v>
@@ -4499,7 +4490,7 @@
         <v>193</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>194</v>
@@ -4514,7 +4505,7 @@
         <v>195</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>196</v>
@@ -4532,13 +4523,13 @@
         <v>12590</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H36" s="7">
         <v>10</v>
@@ -4547,13 +4538,13 @@
         <v>10196</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>107</v>
+        <v>197</v>
       </c>
       <c r="K36" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M36" s="7">
         <v>21</v>
@@ -4747,7 +4738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F6264D-FB20-434B-9104-04F5B0E28244}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481DA57D-E48C-499E-8E58-807BF46401AA}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5108,10 +5099,10 @@
         <v>241</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5179,13 +5170,13 @@
         <v>916</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5200,7 +5191,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -5209,13 +5200,13 @@
         <v>916</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,7 +5227,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -5245,13 +5236,13 @@
         <v>1039</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -5260,13 +5251,13 @@
         <v>1039</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,13 +5272,13 @@
         <v>4082</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -5296,13 +5287,13 @@
         <v>1886</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -5311,13 +5302,13 @@
         <v>5967</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>258</v>
+        <v>71</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,13 +5323,13 @@
         <v>36894</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -5347,13 +5338,13 @@
         <v>49190</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>264</v>
+        <v>55</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M13" s="7">
         <v>84</v>
@@ -5362,13 +5353,13 @@
         <v>86084</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,13 +5374,13 @@
         <v>71347</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H14" s="7">
         <v>105</v>
@@ -5398,13 +5389,13 @@
         <v>112742</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M14" s="7">
         <v>170</v>
@@ -5413,13 +5404,13 @@
         <v>184089</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,7 +5466,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5508,7 +5499,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5523,7 +5514,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,7 +5550,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5574,7 +5565,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,10 +5583,10 @@
         <v>44</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -5604,13 +5595,13 @@
         <v>1064</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -5619,13 +5610,13 @@
         <v>5441</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>283</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5640,13 +5631,13 @@
         <v>109556</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H19" s="7">
         <v>113</v>
@@ -5655,13 +5646,13 @@
         <v>126303</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M19" s="7">
         <v>212</v>
@@ -5670,13 +5661,13 @@
         <v>235859</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,13 +5682,13 @@
         <v>114976</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H20" s="7">
         <v>155</v>
@@ -5706,13 +5697,13 @@
         <v>171949</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="M20" s="7">
         <v>263</v>
@@ -5721,13 +5712,13 @@
         <v>286925</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,7 +5774,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5795,13 +5786,13 @@
         <v>1086</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5816,7 +5807,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -5825,13 +5816,13 @@
         <v>1086</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>80</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,13 +5837,13 @@
         <v>984</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -5861,13 +5852,13 @@
         <v>7140</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>307</v>
+        <v>252</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>308</v>
+        <v>153</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -5876,13 +5867,13 @@
         <v>8124</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5897,13 +5888,13 @@
         <v>3841</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -5912,13 +5903,13 @@
         <v>3057</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -5927,13 +5918,13 @@
         <v>6898</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>318</v>
+        <v>116</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5948,13 +5939,13 @@
         <v>57250</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="H25" s="7">
         <v>68</v>
@@ -5963,13 +5954,13 @@
         <v>71609</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="M25" s="7">
         <v>119</v>
@@ -5978,13 +5969,13 @@
         <v>128859</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,13 +5990,13 @@
         <v>118661</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H26" s="7">
         <v>163</v>
@@ -6014,13 +6005,13 @@
         <v>176209</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="M26" s="7">
         <v>273</v>
@@ -6029,13 +6020,13 @@
         <v>294870</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>136</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6091,7 +6082,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6109,7 +6100,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6139,7 +6130,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>338</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6154,13 +6145,13 @@
         <v>2848</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -6169,13 +6160,13 @@
         <v>7589</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
@@ -6184,13 +6175,13 @@
         <v>10437</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>345</v>
+        <v>88</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,7 +6202,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -6220,13 +6211,13 @@
         <v>8831</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>46</v>
+        <v>339</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="M30" s="7">
         <v>8</v>
@@ -6238,10 +6229,10 @@
         <v>157</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>121</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,13 +6247,13 @@
         <v>34151</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="H31" s="7">
         <v>48</v>
@@ -6271,13 +6262,13 @@
         <v>49635</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="M31" s="7">
         <v>80</v>
@@ -6286,13 +6277,13 @@
         <v>83785</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,13 +6298,13 @@
         <v>114450</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>96</v>
+        <v>352</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="H32" s="7">
         <v>153</v>
@@ -6322,13 +6313,13 @@
         <v>160572</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="M32" s="7">
         <v>265</v>
@@ -6337,13 +6328,13 @@
         <v>275022</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>219</v>
+        <v>359</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>366</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,13 +6402,13 @@
         <v>2002</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6432,7 +6423,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -6441,13 +6432,13 @@
         <v>2002</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>371</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,13 +6453,13 @@
         <v>3832</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>107</v>
+        <v>365</v>
       </c>
       <c r="H35" s="7">
         <v>14</v>
@@ -6477,13 +6468,13 @@
         <v>15768</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>189</v>
+        <v>47</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>374</v>
+        <v>299</v>
       </c>
       <c r="M35" s="7">
         <v>18</v>
@@ -6492,13 +6483,13 @@
         <v>19599</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>375</v>
+        <v>302</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>339</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6513,13 +6504,13 @@
         <v>12299</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>47</v>
+        <v>368</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="H36" s="7">
         <v>14</v>
@@ -6528,13 +6519,13 @@
         <v>14838</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>379</v>
+        <v>252</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="M36" s="7">
         <v>25</v>
@@ -6543,13 +6534,13 @@
         <v>27137</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6564,13 +6555,13 @@
         <v>246546</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="H37" s="7">
         <v>283</v>
@@ -6579,13 +6570,13 @@
         <v>303954</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="M37" s="7">
         <v>511</v>
@@ -6594,13 +6585,13 @@
         <v>550499</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6615,13 +6606,13 @@
         <v>438923</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="H38" s="7">
         <v>595</v>
@@ -6630,13 +6621,13 @@
         <v>642785</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="M38" s="7">
         <v>1010</v>
@@ -6645,13 +6636,13 @@
         <v>1081708</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>95</v>
+        <v>390</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6728,7 +6719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2A06BA-649D-493E-A5E7-1DDEAD9545B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C5DBC7-A05C-45F8-9BC7-FEF66DB4B751}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6745,7 +6736,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6858,7 +6849,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6873,7 +6864,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6888,7 +6879,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6909,7 +6900,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6918,13 +6909,13 @@
         <v>1486</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -6933,13 +6924,13 @@
         <v>1486</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6960,7 +6951,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -6969,13 +6960,13 @@
         <v>2861</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -6984,13 +6975,13 @@
         <v>2861</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>195</v>
+        <v>404</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7005,13 +6996,13 @@
         <v>6547</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>414</v>
+        <v>228</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -7020,13 +7011,13 @@
         <v>4460</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>349</v>
+        <v>409</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -7035,13 +7026,13 @@
         <v>11006</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7056,13 +7047,13 @@
         <v>18066</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>421</v>
+        <v>236</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -7071,13 +7062,13 @@
         <v>13161</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>288</v>
+        <v>417</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M8" s="7">
         <v>29</v>
@@ -7086,13 +7077,13 @@
         <v>31226</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7160,13 +7151,13 @@
         <v>813</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>427</v>
+        <v>372</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7190,13 +7181,13 @@
         <v>813</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7217,7 +7208,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>430</v>
+        <v>371</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -7226,13 +7217,13 @@
         <v>1762</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -7247,7 +7238,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7262,13 +7253,13 @@
         <v>1021</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -7277,13 +7268,13 @@
         <v>1076</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -7292,13 +7283,13 @@
         <v>2096</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7313,13 +7304,13 @@
         <v>27652</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -7328,13 +7319,13 @@
         <v>41033</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -7343,13 +7334,13 @@
         <v>68685</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7364,13 +7355,13 @@
         <v>47864</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>439</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>448</v>
+        <v>322</v>
       </c>
       <c r="H14" s="7">
         <v>70</v>
@@ -7379,13 +7370,13 @@
         <v>72367</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="M14" s="7">
         <v>117</v>
@@ -7394,13 +7385,13 @@
         <v>120230</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7456,7 +7447,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7468,13 +7459,13 @@
         <v>957</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>84</v>
+        <v>448</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7483,13 +7474,13 @@
         <v>946</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -7498,13 +7489,13 @@
         <v>1903</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7519,13 +7510,13 @@
         <v>2114</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -7534,13 +7525,13 @@
         <v>3808</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>461</v>
+        <v>339</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>462</v>
+        <v>72</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>463</v>
+        <v>303</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -7549,13 +7540,13 @@
         <v>5922</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>455</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>342</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7570,13 +7561,13 @@
         <v>14349</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -7585,13 +7576,13 @@
         <v>5571</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>368</v>
+        <v>461</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -7600,13 +7591,13 @@
         <v>19920</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7621,13 +7612,13 @@
         <v>49702</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="H19" s="7">
         <v>64</v>
@@ -7636,13 +7627,13 @@
         <v>68492</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="M19" s="7">
         <v>110</v>
@@ -7651,13 +7642,13 @@
         <v>118194</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7672,28 +7663,28 @@
         <v>104469</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>94</v>
+        <v>268</v>
       </c>
       <c r="H20" s="7">
         <v>121</v>
       </c>
       <c r="I20" s="7">
-        <v>133061</v>
+        <v>133060</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="M20" s="7">
         <v>216</v>
@@ -7702,13 +7693,13 @@
         <v>237529</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7735,7 +7726,7 @@
         <v>195</v>
       </c>
       <c r="I21" s="7">
-        <v>211878</v>
+        <v>211877</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>42</v>
@@ -7764,7 +7755,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7797,7 +7788,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>489</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7812,7 +7803,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7827,13 +7818,13 @@
         <v>1016</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -7842,13 +7833,13 @@
         <v>8584</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -7857,13 +7848,13 @@
         <v>9600</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7878,13 +7869,13 @@
         <v>6137</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>498</v>
+        <v>275</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>104</v>
+        <v>490</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -7893,13 +7884,13 @@
         <v>4552</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -7908,13 +7899,13 @@
         <v>10689</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>461</v>
+        <v>495</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7932,10 +7923,10 @@
         <v>232</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="H25" s="7">
         <v>50</v>
@@ -7944,13 +7935,13 @@
         <v>53914</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="M25" s="7">
         <v>81</v>
@@ -7959,13 +7950,13 @@
         <v>89317</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7980,13 +7971,13 @@
         <v>83633</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="H26" s="7">
         <v>81</v>
@@ -7995,13 +7986,13 @@
         <v>86235</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>516</v>
+        <v>284</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>363</v>
+        <v>509</v>
       </c>
       <c r="M26" s="7">
         <v>158</v>
@@ -8010,13 +8001,13 @@
         <v>169867</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>519</v>
+        <v>481</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8072,7 +8063,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8084,13 +8075,13 @@
         <v>1851</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -8099,13 +8090,13 @@
         <v>1285</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>312</v>
+        <v>514</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>522</v>
+        <v>448</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -8114,13 +8105,13 @@
         <v>3137</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>147</v>
+        <v>516</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>257</v>
+        <v>373</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8135,13 +8126,13 @@
         <v>6954</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>524</v>
+        <v>342</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -8150,13 +8141,13 @@
         <v>13151</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>306</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="M29" s="7">
         <v>17</v>
@@ -8165,13 +8156,13 @@
         <v>20105</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8186,13 +8177,13 @@
         <v>4776</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>314</v>
+        <v>86</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -8201,13 +8192,13 @@
         <v>10141</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -8216,13 +8207,13 @@
         <v>14918</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>537</v>
+        <v>82</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8237,13 +8228,13 @@
         <v>21680</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="H31" s="7">
         <v>36</v>
@@ -8252,13 +8243,13 @@
         <v>38218</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>542</v>
+        <v>172</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>504</v>
+        <v>533</v>
       </c>
       <c r="M31" s="7">
         <v>58</v>
@@ -8267,13 +8258,13 @@
         <v>59898</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8288,13 +8279,13 @@
         <v>116466</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="H32" s="7">
         <v>166</v>
@@ -8303,13 +8294,13 @@
         <v>183143</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>94</v>
+        <v>541</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="M32" s="7">
         <v>278</v>
@@ -8318,13 +8309,13 @@
         <v>299609</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8392,13 +8383,13 @@
         <v>3621</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>318</v>
+        <v>116</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>556</v>
+        <v>107</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -8407,13 +8398,13 @@
         <v>2232</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="M34" s="7">
         <v>6</v>
@@ -8422,13 +8413,13 @@
         <v>5852</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>558</v>
+        <v>184</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>435</v>
+        <v>548</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8446,10 +8437,10 @@
         <v>190</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>191</v>
+        <v>368</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="H35" s="7">
         <v>25</v>
@@ -8458,13 +8449,13 @@
         <v>28791</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="M35" s="7">
         <v>35</v>
@@ -8473,13 +8464,13 @@
         <v>38875</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>113</v>
+        <v>553</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>563</v>
+        <v>458</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8494,13 +8485,13 @@
         <v>26283</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>565</v>
+        <v>340</v>
       </c>
       <c r="H36" s="7">
         <v>23</v>
@@ -8509,13 +8500,13 @@
         <v>24200</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="M36" s="7">
         <v>46</v>
@@ -8524,13 +8515,13 @@
         <v>50483</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>569</v>
+        <v>194</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8545,13 +8536,13 @@
         <v>140982</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>85</v>
+        <v>561</v>
       </c>
       <c r="H37" s="7">
         <v>197</v>
@@ -8560,13 +8551,13 @@
         <v>206117</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="M37" s="7">
         <v>329</v>
@@ -8575,13 +8566,13 @@
         <v>347099</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>261</v>
+        <v>566</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8596,13 +8587,13 @@
         <v>370496</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="H38" s="7">
         <v>450</v>
@@ -8611,13 +8602,13 @@
         <v>487966</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="M38" s="7">
         <v>798</v>
@@ -8626,13 +8617,13 @@
         <v>858462</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8709,7 +8700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0315FC27-4FEB-407B-B710-97DC25AF4E8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91043D05-59D5-4CAB-BA34-5AC59DA39415}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8726,7 +8717,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8839,7 +8830,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>588</v>
+        <v>493</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8854,7 +8845,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8869,7 +8860,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8884,13 +8875,13 @@
         <v>913</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -8899,13 +8890,13 @@
         <v>346</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>252</v>
+        <v>490</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -8914,13 +8905,13 @@
         <v>1259</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8935,13 +8926,13 @@
         <v>460</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -8950,13 +8941,13 @@
         <v>756</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -8965,13 +8956,13 @@
         <v>1216</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8986,13 +8977,13 @@
         <v>2867</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -9001,13 +8992,13 @@
         <v>1685</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -9016,13 +9007,13 @@
         <v>4551</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>607</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9037,13 +9028,13 @@
         <v>15669</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="H8" s="7">
         <v>36</v>
@@ -9052,13 +9043,13 @@
         <v>18130</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="M8" s="7">
         <v>54</v>
@@ -9067,13 +9058,13 @@
         <v>33800</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9147,7 +9138,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -9156,13 +9147,13 @@
         <v>1961</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>259</v>
+        <v>607</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -9177,7 +9168,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>377</v>
+        <v>608</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9192,13 +9183,13 @@
         <v>736</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -9207,13 +9198,13 @@
         <v>2046</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>371</v>
+        <v>612</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -9222,13 +9213,13 @@
         <v>2782</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>622</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9243,13 +9234,13 @@
         <v>6444</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -9258,13 +9249,13 @@
         <v>2110</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>343</v>
+        <v>618</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>371</v>
+        <v>612</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -9273,13 +9264,13 @@
         <v>8554</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>628</v>
+        <v>365</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9294,13 +9285,13 @@
         <v>25091</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -9309,13 +9300,13 @@
         <v>27128</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>633</v>
+        <v>52</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -9324,13 +9315,13 @@
         <v>52219</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9345,13 +9336,13 @@
         <v>77392</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="H14" s="7">
         <v>161</v>
@@ -9360,13 +9351,13 @@
         <v>95968</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="M14" s="7">
         <v>251</v>
@@ -9375,13 +9366,13 @@
         <v>173359</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9437,7 +9428,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -9452,10 +9443,10 @@
         <v>162</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -9464,7 +9455,7 @@
         <v>796</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
@@ -9479,13 +9470,13 @@
         <v>3224</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>558</v>
+        <v>642</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>651</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9500,13 +9491,13 @@
         <v>6163</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>644</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -9515,13 +9506,13 @@
         <v>5469</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>645</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>256</v>
+        <v>646</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -9530,13 +9521,13 @@
         <v>11632</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9551,13 +9542,13 @@
         <v>4414</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>281</v>
+        <v>649</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -9566,13 +9557,13 @@
         <v>8858</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>343</v>
+        <v>618</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>159</v>
+        <v>652</v>
       </c>
       <c r="M18" s="7">
         <v>15</v>
@@ -9581,10 +9572,10 @@
         <v>13272</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>657</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>15</v>
@@ -9602,13 +9593,13 @@
         <v>56926</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>546</v>
+        <v>654</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="H19" s="7">
         <v>96</v>
@@ -9617,13 +9608,13 @@
         <v>63385</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>660</v>
+        <v>207</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>662</v>
+        <v>561</v>
       </c>
       <c r="M19" s="7">
         <v>141</v>
@@ -9632,13 +9623,13 @@
         <v>120311</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9653,10 +9644,10 @@
         <v>146068</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>660</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>238</v>
@@ -9668,13 +9659,13 @@
         <v>178790</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M20" s="7">
         <v>401</v>
@@ -9683,13 +9674,13 @@
         <v>324858</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9745,7 +9736,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -9763,7 +9754,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>673</v>
+        <v>109</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -9772,13 +9763,13 @@
         <v>1519</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -9787,13 +9778,13 @@
         <v>1519</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9808,13 +9799,13 @@
         <v>5222</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>496</v>
+        <v>672</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -9823,13 +9814,13 @@
         <v>9300</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>375</v>
+        <v>674</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M23" s="7">
         <v>19</v>
@@ -9838,13 +9829,13 @@
         <v>14522</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>530</v>
+        <v>675</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9859,13 +9850,13 @@
         <v>7263</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>680</v>
+        <v>256</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -9874,13 +9865,13 @@
         <v>12815</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -9889,13 +9880,13 @@
         <v>20078</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>190</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9910,13 +9901,13 @@
         <v>23088</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="H25" s="7">
         <v>58</v>
@@ -9925,13 +9916,13 @@
         <v>41905</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>690</v>
+        <v>305</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="M25" s="7">
         <v>82</v>
@@ -9940,13 +9931,13 @@
         <v>64993</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>693</v>
+        <v>496</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9961,13 +9952,13 @@
         <v>105580</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="H26" s="7">
         <v>192</v>
@@ -9976,13 +9967,13 @@
         <v>245883</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="M26" s="7">
         <v>288</v>
@@ -9991,13 +9982,13 @@
         <v>351463</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10053,7 +10044,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -10065,13 +10056,13 @@
         <v>2779</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>160</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -10086,7 +10077,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>462</v>
+        <v>700</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -10095,13 +10086,13 @@
         <v>2779</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10116,13 +10107,13 @@
         <v>6764</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>145</v>
+        <v>704</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>344</v>
+        <v>706</v>
       </c>
       <c r="H29" s="7">
         <v>19</v>
@@ -10131,13 +10122,13 @@
         <v>14385</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -10146,13 +10137,13 @@
         <v>21148</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10167,13 +10158,13 @@
         <v>16922</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>521</v>
+        <v>713</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -10182,13 +10173,13 @@
         <v>17418</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>717</v>
+        <v>45</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="M30" s="7">
         <v>37</v>
@@ -10197,13 +10188,13 @@
         <v>34340</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>498</v>
+        <v>275</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10218,13 +10209,13 @@
         <v>20828</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>131</v>
+        <v>721</v>
       </c>
       <c r="H31" s="7">
         <v>56</v>
@@ -10233,13 +10224,13 @@
         <v>44946</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>724</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>725</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>726</v>
       </c>
       <c r="M31" s="7">
         <v>77</v>
@@ -10248,13 +10239,13 @@
         <v>65774</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>727</v>
+        <v>399</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10269,13 +10260,13 @@
         <v>151238</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="H32" s="7">
         <v>319</v>
@@ -10284,13 +10275,13 @@
         <v>226166</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="M32" s="7">
         <v>478</v>
@@ -10299,13 +10290,13 @@
         <v>377404</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10373,13 +10364,13 @@
         <v>5206</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H34" s="7">
         <v>5</v>
@@ -10388,13 +10379,13 @@
         <v>4276</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="M34" s="7">
         <v>11</v>
@@ -10403,13 +10394,13 @@
         <v>9483</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>743</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10424,13 +10415,13 @@
         <v>19798</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="H35" s="7">
         <v>44</v>
@@ -10439,13 +10430,13 @@
         <v>31545</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>48</v>
+        <v>742</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="M35" s="7">
         <v>65</v>
@@ -10454,13 +10445,13 @@
         <v>51343</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>535</v>
+        <v>746</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10475,13 +10466,13 @@
         <v>35502</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>749</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>750</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>751</v>
       </c>
       <c r="H36" s="7">
         <v>50</v>
@@ -10490,13 +10481,13 @@
         <v>41958</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>752</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>753</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>754</v>
       </c>
       <c r="M36" s="7">
         <v>83</v>
@@ -10505,13 +10496,13 @@
         <v>77460</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10526,13 +10517,13 @@
         <v>128800</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>542</v>
+        <v>172</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="H37" s="7">
         <v>254</v>
@@ -10541,13 +10532,13 @@
         <v>179048</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="M37" s="7">
         <v>376</v>
@@ -10556,13 +10547,13 @@
         <v>307848</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>762</v>
+        <v>459</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10577,13 +10568,13 @@
         <v>495947</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="H38" s="7">
         <v>960</v>
@@ -10592,13 +10583,13 @@
         <v>764937</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="M38" s="7">
         <v>1472</v>
@@ -10607,13 +10598,13 @@
         <v>1260884</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P21B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21B-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F454EA7D-7051-4160-9263-68F08645A568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A0DC06C-9651-459A-BCDF-5D5C7ABE6C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A3753828-8197-493A-9631-9FBA6DCE1560}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0ACE173B-97E9-412C-A53A-B21A46CCEBC4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="784">
   <si>
     <t>Población según tipo de servicio de urgencias utilizado en 2007 (Tasa respuesta: 20,73%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otras respuestas</t>
@@ -95,13 +95,13 @@
     <t>3,83%</t>
   </si>
   <si>
-    <t>17,82%</t>
+    <t>16,92%</t>
   </si>
   <si>
     <t>2,22%</t>
   </si>
   <si>
-    <t>10,88%</t>
+    <t>11,56%</t>
   </si>
   <si>
     <t>Un servicio privado urgencia</t>
@@ -113,28 +113,28 @@
     <t>39,48%</t>
   </si>
   <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
   </si>
   <si>
     <t>25,96%</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
   </si>
   <si>
     <t>31,63%</t>
   </si>
   <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
   </si>
   <si>
     <t>Un hospital de la Seguridad Social/S.A.S. (Servicio Andaluz</t>
@@ -143,2209 +143,2254 @@
     <t>60,52%</t>
   </si>
   <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
   </si>
   <si>
     <t>70,21%</t>
   </si>
   <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
   </si>
   <si>
     <t>66,14%</t>
   </si>
   <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,91%</t>
   </si>
   <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según tipo de servicio de urgencias utilizado en 2012 (Tasa respuesta: 24,07%)</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>Población según tipo de servicio de urgencias utilizado en 2016 (Tasa respuesta: 18,48%)</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>Población según tipo de servicio de urgencias utilizado en 2023 (Tasa respuesta: 22,96%)</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
     <t>5,75%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
   </si>
   <si>
     <t>70,74%</t>
   </si>
   <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según tipo de servicio de urgencias utilizado en 2012 (Tasa respuesta: 24,07%)</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>Población según tipo de servicio de urgencias utilizado en 2015 (Tasa respuesta: 18,48%)</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>Población según tipo de servicio de urgencias utilizado en 2023 (Tasa respuesta: 22,96%)</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
+    <t>82,35%</t>
   </si>
   <si>
     <t>73,86%</t>
   </si>
   <si>
-    <t>79,72%</t>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
   </si>
 </sst>
 </file>
@@ -2757,7 +2802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF8A34D-95B0-4F48-99FC-04D7AD8AC6BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6121D42B-9D94-4310-A986-29746E8C0EAD}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3632,10 +3677,10 @@
         <v>86</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,13 +3695,13 @@
         <v>55116</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H19" s="7">
         <v>101</v>
@@ -3820,13 +3865,13 @@
         <v>740</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -3835,13 +3880,13 @@
         <v>740</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,13 +3901,13 @@
         <v>3751</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -3871,13 +3916,13 @@
         <v>2496</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -3886,13 +3931,13 @@
         <v>6246</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,13 +3952,13 @@
         <v>7263</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -3922,13 +3967,13 @@
         <v>5737</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M24" s="7">
         <v>12</v>
@@ -3937,13 +3982,13 @@
         <v>13000</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,13 +4003,13 @@
         <v>18740</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H25" s="7">
         <v>43</v>
@@ -3973,13 +4018,13 @@
         <v>41295</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M25" s="7">
         <v>63</v>
@@ -3988,13 +4033,13 @@
         <v>60035</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4009,13 +4054,13 @@
         <v>93901</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H26" s="7">
         <v>128</v>
@@ -4024,13 +4069,13 @@
         <v>126271</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M26" s="7">
         <v>216</v>
@@ -4039,13 +4084,13 @@
         <v>220172</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,7 +4146,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4113,13 +4158,13 @@
         <v>838</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -4134,7 +4179,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -4143,13 +4188,13 @@
         <v>2988</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>80</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,13 +4209,13 @@
         <v>5370</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -4179,13 +4224,13 @@
         <v>6954</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -4194,13 +4239,13 @@
         <v>12325</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,13 +4260,13 @@
         <v>3191</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -4230,13 +4275,13 @@
         <v>897</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M30" s="7">
         <v>4</v>
@@ -4245,13 +4290,13 @@
         <v>4088</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,13 +4311,13 @@
         <v>28057</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H31" s="7">
         <v>40</v>
@@ -4281,13 +4326,13 @@
         <v>41695</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M31" s="7">
         <v>69</v>
@@ -4296,13 +4341,13 @@
         <v>69751</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,13 +4362,13 @@
         <v>98937</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H32" s="7">
         <v>167</v>
@@ -4332,13 +4377,13 @@
         <v>175748</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M32" s="7">
         <v>274</v>
@@ -4347,13 +4392,13 @@
         <v>274686</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4421,13 +4466,13 @@
         <v>2686</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -4439,10 +4484,10 @@
         <v>76</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M34" s="7">
         <v>6</v>
@@ -4451,13 +4496,13 @@
         <v>5575</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,13 +4517,13 @@
         <v>10192</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H35" s="7">
         <v>13</v>
@@ -4487,13 +4532,13 @@
         <v>13633</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>50</v>
+        <v>199</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>194</v>
+        <v>87</v>
       </c>
       <c r="M35" s="7">
         <v>23</v>
@@ -4502,13 +4547,13 @@
         <v>23825</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4523,13 +4568,13 @@
         <v>12590</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>197</v>
+        <v>70</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="H36" s="7">
         <v>10</v>
@@ -4538,13 +4583,13 @@
         <v>10196</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>197</v>
+        <v>111</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M36" s="7">
         <v>21</v>
@@ -4553,13 +4598,13 @@
         <v>22786</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4574,13 +4619,13 @@
         <v>137445</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H37" s="7">
         <v>226</v>
@@ -4589,13 +4634,13 @@
         <v>229958</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M37" s="7">
         <v>361</v>
@@ -4604,13 +4649,13 @@
         <v>367403</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,13 +4670,13 @@
         <v>395532</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H38" s="7">
         <v>551</v>
@@ -4640,13 +4685,13 @@
         <v>567334</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M38" s="7">
         <v>939</v>
@@ -4655,13 +4700,13 @@
         <v>962865</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,7 +4762,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4738,7 +4783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481DA57D-E48C-499E-8E58-807BF46401AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F34627-A572-447D-936A-68A53D5DE1BC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4755,7 +4800,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4868,7 +4913,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4883,7 +4928,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4898,7 +4943,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,7 +4964,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4934,7 +4979,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4949,7 +4994,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,7 +5015,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4985,7 +5030,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5000,7 +5045,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,13 +5060,13 @@
         <v>8695</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -5030,13 +5075,13 @@
         <v>7217</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -5045,13 +5090,13 @@
         <v>15913</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5066,13 +5111,13 @@
         <v>19490</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -5081,13 +5126,13 @@
         <v>21313</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="M8" s="7">
         <v>39</v>
@@ -5096,13 +5141,13 @@
         <v>40802</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>104</v>
+        <v>247</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5170,13 +5215,13 @@
         <v>916</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5191,7 +5236,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -5206,7 +5251,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5227,7 +5272,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -5236,13 +5281,13 @@
         <v>1039</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -5251,13 +5296,13 @@
         <v>1039</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5272,13 +5317,13 @@
         <v>4082</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -5287,13 +5332,13 @@
         <v>1886</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -5302,13 +5347,13 @@
         <v>5967</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>71</v>
+        <v>261</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,13 +5368,13 @@
         <v>36894</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -5338,13 +5383,13 @@
         <v>49190</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="M13" s="7">
         <v>84</v>
@@ -5353,13 +5398,13 @@
         <v>86084</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,13 +5419,13 @@
         <v>71347</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="H14" s="7">
         <v>105</v>
@@ -5389,13 +5434,13 @@
         <v>112742</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="M14" s="7">
         <v>170</v>
@@ -5404,13 +5449,13 @@
         <v>184089</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,7 +5559,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5565,7 +5610,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,10 +5628,10 @@
         <v>44</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>274</v>
+        <v>187</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -5595,13 +5640,13 @@
         <v>1064</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -5610,13 +5655,13 @@
         <v>5441</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>80</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,13 +5676,13 @@
         <v>109556</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="H19" s="7">
         <v>113</v>
@@ -5646,13 +5691,13 @@
         <v>126303</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="M19" s="7">
         <v>212</v>
@@ -5661,13 +5706,13 @@
         <v>235859</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,13 +5727,13 @@
         <v>114976</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="H20" s="7">
         <v>155</v>
@@ -5697,13 +5742,13 @@
         <v>171949</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="M20" s="7">
         <v>263</v>
@@ -5712,13 +5757,13 @@
         <v>286925</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,13 +5831,13 @@
         <v>1086</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5807,7 +5852,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>189</v>
+        <v>306</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -5816,13 +5861,13 @@
         <v>1086</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>245</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,13 +5882,13 @@
         <v>984</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>299</v>
+        <v>253</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -5852,13 +5897,13 @@
         <v>7140</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>252</v>
+        <v>310</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>153</v>
+        <v>311</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -5867,13 +5912,13 @@
         <v>8124</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>303</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,13 +5933,13 @@
         <v>3841</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -5903,13 +5948,13 @@
         <v>3057</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -5918,13 +5963,13 @@
         <v>6898</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>116</v>
+        <v>319</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5939,13 +5984,13 @@
         <v>57250</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="H25" s="7">
         <v>68</v>
@@ -5954,13 +5999,13 @@
         <v>71609</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="M25" s="7">
         <v>119</v>
@@ -5969,13 +6014,13 @@
         <v>128859</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5990,13 +6035,13 @@
         <v>118661</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="H26" s="7">
         <v>163</v>
@@ -6005,13 +6050,13 @@
         <v>176209</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="M26" s="7">
         <v>273</v>
@@ -6020,13 +6065,13 @@
         <v>294870</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>328</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6082,7 +6127,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6100,7 +6145,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>329</v>
+        <v>158</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6130,7 +6175,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6145,13 +6190,13 @@
         <v>2848</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -6160,13 +6205,13 @@
         <v>7589</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>333</v>
+        <v>253</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>334</v>
+        <v>107</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
@@ -6175,13 +6220,13 @@
         <v>10437</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>88</v>
+        <v>342</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,7 +6247,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>329</v>
+        <v>158</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -6211,13 +6256,13 @@
         <v>8831</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>339</v>
+        <v>200</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="M30" s="7">
         <v>8</v>
@@ -6226,13 +6271,13 @@
         <v>8831</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,13 +6292,13 @@
         <v>34151</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="H31" s="7">
         <v>48</v>
@@ -6262,13 +6307,13 @@
         <v>49635</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="M31" s="7">
         <v>80</v>
@@ -6277,13 +6322,13 @@
         <v>83785</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,13 +6343,13 @@
         <v>114450</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>353</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H32" s="7">
         <v>153</v>
@@ -6313,13 +6358,13 @@
         <v>160572</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="M32" s="7">
         <v>265</v>
@@ -6328,13 +6373,13 @@
         <v>275022</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>65</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,13 +6447,13 @@
         <v>2002</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>361</v>
+        <v>284</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6423,7 +6468,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -6432,13 +6477,13 @@
         <v>2002</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,13 +6498,13 @@
         <v>3832</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>364</v>
+        <v>193</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H35" s="7">
         <v>14</v>
@@ -6468,13 +6513,13 @@
         <v>15768</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>299</v>
+        <v>371</v>
       </c>
       <c r="M35" s="7">
         <v>18</v>
@@ -6486,10 +6531,10 @@
         <v>75</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>246</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6504,13 +6549,13 @@
         <v>12299</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="H36" s="7">
         <v>14</v>
@@ -6519,13 +6564,13 @@
         <v>14838</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>252</v>
+        <v>375</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="M36" s="7">
         <v>25</v>
@@ -6534,13 +6579,13 @@
         <v>27137</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>373</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6555,13 +6600,13 @@
         <v>246546</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H37" s="7">
         <v>283</v>
@@ -6570,13 +6615,13 @@
         <v>303954</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M37" s="7">
         <v>511</v>
@@ -6585,13 +6630,13 @@
         <v>550499</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6606,13 +6651,13 @@
         <v>438923</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="H38" s="7">
         <v>595</v>
@@ -6621,13 +6666,13 @@
         <v>642785</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="M38" s="7">
         <v>1010</v>
@@ -6636,13 +6681,13 @@
         <v>1081708</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6698,7 +6743,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -6719,7 +6764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C5DBC7-A05C-45F8-9BC7-FEF66DB4B751}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D565EB96-2CE0-4583-9BB0-37515F1ED9CD}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6736,7 +6781,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6849,7 +6894,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6864,7 +6909,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6879,7 +6924,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6900,7 +6945,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6909,13 +6954,13 @@
         <v>1486</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -6924,13 +6969,13 @@
         <v>1486</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6951,7 +6996,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -6960,13 +7005,13 @@
         <v>2861</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -6975,13 +7020,13 @@
         <v>2861</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>404</v>
+        <v>200</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6996,13 +7041,13 @@
         <v>6547</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>228</v>
+        <v>411</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -7011,13 +7056,13 @@
         <v>4460</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -7026,13 +7071,13 @@
         <v>11006</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7047,13 +7092,13 @@
         <v>18066</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>236</v>
+        <v>419</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -7062,13 +7107,13 @@
         <v>13161</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="M8" s="7">
         <v>29</v>
@@ -7077,13 +7122,13 @@
         <v>31226</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7151,13 +7196,13 @@
         <v>813</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7172,7 +7217,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -7181,13 +7226,13 @@
         <v>813</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7208,7 +7253,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>371</v>
+        <v>429</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -7217,13 +7262,13 @@
         <v>1762</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -7238,7 +7283,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>398</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7253,13 +7298,13 @@
         <v>1021</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -7268,13 +7313,13 @@
         <v>1076</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>426</v>
+        <v>196</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -7283,13 +7328,13 @@
         <v>2096</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7304,13 +7349,13 @@
         <v>27652</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -7319,13 +7364,13 @@
         <v>41033</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -7334,13 +7379,13 @@
         <v>68685</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7355,13 +7400,13 @@
         <v>47864</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>322</v>
+        <v>448</v>
       </c>
       <c r="H14" s="7">
         <v>70</v>
@@ -7370,13 +7415,13 @@
         <v>72367</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>441</v>
+        <v>337</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="M14" s="7">
         <v>117</v>
@@ -7385,13 +7430,13 @@
         <v>120230</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>446</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7459,13 +7504,13 @@
         <v>957</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7474,13 +7519,13 @@
         <v>946</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -7489,13 +7534,13 @@
         <v>1903</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>452</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7510,13 +7555,13 @@
         <v>2114</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -7525,13 +7570,13 @@
         <v>3808</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>339</v>
+        <v>459</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>72</v>
+        <v>455</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>303</v>
+        <v>460</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -7540,13 +7585,13 @@
         <v>5922</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7561,13 +7606,13 @@
         <v>14349</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>458</v>
+        <v>344</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -7576,13 +7621,13 @@
         <v>5571</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>461</v>
+        <v>196</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -7591,13 +7636,13 @@
         <v>19920</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>151</v>
+        <v>469</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7612,13 +7657,13 @@
         <v>49702</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="H19" s="7">
         <v>64</v>
@@ -7627,13 +7672,13 @@
         <v>68492</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="M19" s="7">
         <v>110</v>
@@ -7642,13 +7687,13 @@
         <v>118194</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7663,28 +7708,28 @@
         <v>104469</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>268</v>
+        <v>482</v>
       </c>
       <c r="H20" s="7">
         <v>121</v>
       </c>
       <c r="I20" s="7">
-        <v>133060</v>
+        <v>133061</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="M20" s="7">
         <v>216</v>
@@ -7693,13 +7738,13 @@
         <v>237529</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7726,7 +7771,7 @@
         <v>195</v>
       </c>
       <c r="I21" s="7">
-        <v>211877</v>
+        <v>211878</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>42</v>
@@ -7773,7 +7818,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7788,7 +7833,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7803,7 +7848,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7818,13 +7863,13 @@
         <v>1016</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>483</v>
+        <v>204</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -7833,13 +7878,13 @@
         <v>8584</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>485</v>
+        <v>454</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -7848,13 +7893,13 @@
         <v>9600</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>488</v>
+        <v>370</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7869,13 +7914,13 @@
         <v>6137</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>275</v>
+        <v>494</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -7884,13 +7929,13 @@
         <v>4552</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>71</v>
+        <v>498</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -7899,13 +7944,13 @@
         <v>10689</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>495</v>
+        <v>161</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7920,13 +7965,13 @@
         <v>35403</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="H25" s="7">
         <v>50</v>
@@ -7935,13 +7980,13 @@
         <v>53914</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="M25" s="7">
         <v>81</v>
@@ -7950,13 +7995,13 @@
         <v>89317</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7971,13 +8016,13 @@
         <v>83633</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="H26" s="7">
         <v>81</v>
@@ -7986,13 +8031,13 @@
         <v>86235</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>284</v>
+        <v>514</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="M26" s="7">
         <v>158</v>
@@ -8001,13 +8046,13 @@
         <v>169867</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>511</v>
+        <v>452</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>481</v>
+        <v>517</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8063,7 +8108,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8075,13 +8120,13 @@
         <v>1851</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -8090,13 +8135,13 @@
         <v>1285</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>448</v>
+        <v>521</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -8105,13 +8150,13 @@
         <v>3137</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>515</v>
+        <v>113</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>516</v>
+        <v>152</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>373</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8126,13 +8171,13 @@
         <v>6954</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>342</v>
+        <v>522</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>517</v>
+        <v>44</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -8141,13 +8186,13 @@
         <v>13151</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>202</v>
+        <v>525</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="M29" s="7">
         <v>17</v>
@@ -8156,13 +8201,13 @@
         <v>20105</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>522</v>
+        <v>150</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8177,13 +8222,13 @@
         <v>4776</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>456</v>
+        <v>305</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>86</v>
+        <v>529</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -8192,13 +8237,13 @@
         <v>10141</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>526</v>
+        <v>428</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -8207,13 +8252,13 @@
         <v>14918</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>82</v>
+        <v>533</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8228,13 +8273,13 @@
         <v>21680</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="H31" s="7">
         <v>36</v>
@@ -8243,13 +8288,13 @@
         <v>38218</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>172</v>
+        <v>538</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="M31" s="7">
         <v>58</v>
@@ -8258,13 +8303,13 @@
         <v>59898</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8279,13 +8324,13 @@
         <v>116466</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="H32" s="7">
         <v>166</v>
@@ -8294,13 +8339,13 @@
         <v>183143</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="M32" s="7">
         <v>278</v>
@@ -8309,13 +8354,13 @@
         <v>299609</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8383,10 +8428,10 @@
         <v>3621</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>107</v>
@@ -8398,13 +8443,13 @@
         <v>2232</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>278</v>
+        <v>191</v>
       </c>
       <c r="M34" s="7">
         <v>6</v>
@@ -8413,13 +8458,13 @@
         <v>5852</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>184</v>
+        <v>555</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>548</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8434,13 +8479,13 @@
         <v>10084</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>368</v>
+        <v>50</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>192</v>
+        <v>556</v>
       </c>
       <c r="H35" s="7">
         <v>25</v>
@@ -8449,13 +8494,13 @@
         <v>28791</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>549</v>
+        <v>436</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>550</v>
+        <v>376</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="M35" s="7">
         <v>35</v>
@@ -8464,13 +8509,13 @@
         <v>38875</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>552</v>
+        <v>469</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>458</v>
+        <v>559</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8485,13 +8530,13 @@
         <v>26283</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>310</v>
+        <v>561</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>340</v>
+        <v>562</v>
       </c>
       <c r="H36" s="7">
         <v>23</v>
@@ -8500,13 +8545,13 @@
         <v>24200</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>555</v>
+        <v>431</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="M36" s="7">
         <v>46</v>
@@ -8515,13 +8560,13 @@
         <v>50483</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>194</v>
+        <v>565</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8536,13 +8581,13 @@
         <v>140982</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>561</v>
+        <v>134</v>
       </c>
       <c r="H37" s="7">
         <v>197</v>
@@ -8551,13 +8596,13 @@
         <v>206117</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="M37" s="7">
         <v>329</v>
@@ -8566,13 +8611,13 @@
         <v>347099</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8587,13 +8632,13 @@
         <v>370496</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="H38" s="7">
         <v>450</v>
@@ -8602,13 +8647,13 @@
         <v>487966</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="M38" s="7">
         <v>798</v>
@@ -8617,13 +8662,13 @@
         <v>858462</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8679,7 +8724,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -8700,7 +8745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91043D05-59D5-4CAB-BA34-5AC59DA39415}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAEB5-1EFC-4222-8A85-AD8722F67E2A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8717,7 +8762,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8830,7 +8875,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>493</v>
+        <v>584</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8845,7 +8890,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8860,7 +8905,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>579</v>
+        <v>521</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8875,13 +8920,13 @@
         <v>913</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -8890,13 +8935,13 @@
         <v>346</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -8905,13 +8950,13 @@
         <v>1259</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8926,13 +8971,13 @@
         <v>460</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -8941,13 +8986,13 @@
         <v>756</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>588</v>
+        <v>122</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -8956,13 +9001,13 @@
         <v>1216</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>482</v>
+        <v>595</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8977,13 +9022,13 @@
         <v>2867</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>549</v>
+        <v>154</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -8992,13 +9037,13 @@
         <v>1685</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>526</v>
+        <v>600</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -9007,13 +9052,13 @@
         <v>4551</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>466</v>
+        <v>604</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9028,13 +9073,13 @@
         <v>15669</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="H8" s="7">
         <v>36</v>
@@ -9043,13 +9088,13 @@
         <v>18130</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="M8" s="7">
         <v>54</v>
@@ -9058,13 +9103,13 @@
         <v>33800</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9138,7 +9183,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -9147,13 +9192,13 @@
         <v>1961</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -9162,13 +9207,13 @@
         <v>1961</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>608</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9183,13 +9228,13 @@
         <v>736</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>610</v>
+        <v>256</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -9198,13 +9243,13 @@
         <v>2046</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>525</v>
+        <v>619</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -9213,13 +9258,13 @@
         <v>2782</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>194</v>
+        <v>622</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9234,13 +9279,13 @@
         <v>6444</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>616</v>
+        <v>495</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -9249,13 +9294,13 @@
         <v>2110</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>619</v>
+        <v>315</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -9264,13 +9309,13 @@
         <v>8554</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>365</v>
+        <v>628</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9285,13 +9330,13 @@
         <v>25091</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -9300,13 +9345,13 @@
         <v>27128</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>52</v>
+        <v>633</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -9315,13 +9360,13 @@
         <v>52219</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9336,13 +9381,13 @@
         <v>77392</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="H14" s="7">
         <v>161</v>
@@ -9351,13 +9396,13 @@
         <v>95968</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="M14" s="7">
         <v>251</v>
@@ -9366,13 +9411,13 @@
         <v>173359</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9440,13 +9485,13 @@
         <v>2428</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -9455,13 +9500,13 @@
         <v>796</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -9470,13 +9515,13 @@
         <v>3224</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>641</v>
+        <v>319</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>642</v>
+        <v>555</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>404</v>
+        <v>650</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9491,13 +9536,13 @@
         <v>6163</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>396</v>
+        <v>653</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -9506,13 +9551,13 @@
         <v>5469</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>368</v>
+        <v>655</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -9521,13 +9566,13 @@
         <v>11632</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>424</v>
+        <v>628</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>648</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9542,13 +9587,13 @@
         <v>4414</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>650</v>
+        <v>489</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -9557,13 +9602,13 @@
         <v>8858</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>618</v>
+        <v>660</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="M18" s="7">
         <v>15</v>
@@ -9572,13 +9617,13 @@
         <v>13272</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>662</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>309</v>
+        <v>495</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>663</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9593,13 +9638,13 @@
         <v>56926</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="H19" s="7">
         <v>96</v>
@@ -9608,13 +9653,13 @@
         <v>63385</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>207</v>
+        <v>667</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>561</v>
+        <v>669</v>
       </c>
       <c r="M19" s="7">
         <v>141</v>
@@ -9623,13 +9668,13 @@
         <v>120311</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9644,13 +9689,13 @@
         <v>146068</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>238</v>
+        <v>675</v>
       </c>
       <c r="H20" s="7">
         <v>252</v>
@@ -9659,13 +9704,13 @@
         <v>178790</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>662</v>
+        <v>676</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>664</v>
+        <v>678</v>
       </c>
       <c r="M20" s="7">
         <v>401</v>
@@ -9674,13 +9719,13 @@
         <v>324858</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>665</v>
+        <v>679</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>667</v>
+        <v>681</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9754,7 +9799,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>109</v>
+        <v>682</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -9763,13 +9808,13 @@
         <v>1519</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>669</v>
+        <v>49</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -9778,13 +9823,13 @@
         <v>1519</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>670</v>
+        <v>684</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>75</v>
+        <v>685</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9799,13 +9844,13 @@
         <v>5222</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>672</v>
+        <v>83</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>673</v>
+        <v>687</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -9814,13 +9859,13 @@
         <v>9300</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>552</v>
+        <v>469</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>674</v>
+        <v>78</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>118</v>
+        <v>688</v>
       </c>
       <c r="M23" s="7">
         <v>19</v>
@@ -9829,13 +9874,13 @@
         <v>14522</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>675</v>
+        <v>689</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>613</v>
+        <v>111</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>676</v>
+        <v>690</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9850,13 +9895,13 @@
         <v>7263</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>256</v>
+        <v>691</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>677</v>
+        <v>692</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>678</v>
+        <v>693</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -9865,13 +9910,13 @@
         <v>12815</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>679</v>
+        <v>426</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -9880,13 +9925,13 @@
         <v>20078</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>190</v>
+        <v>695</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9901,13 +9946,13 @@
         <v>23088</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>682</v>
+        <v>697</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>683</v>
+        <v>698</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>684</v>
+        <v>699</v>
       </c>
       <c r="H25" s="7">
         <v>58</v>
@@ -9916,13 +9961,13 @@
         <v>41905</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>685</v>
+        <v>700</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>305</v>
+        <v>701</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>686</v>
+        <v>702</v>
       </c>
       <c r="M25" s="7">
         <v>82</v>
@@ -9931,13 +9976,13 @@
         <v>64993</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>496</v>
+        <v>704</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>688</v>
+        <v>705</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9952,13 +9997,13 @@
         <v>105580</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>689</v>
+        <v>706</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>690</v>
+        <v>707</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>691</v>
+        <v>708</v>
       </c>
       <c r="H26" s="7">
         <v>192</v>
@@ -9967,13 +10012,13 @@
         <v>245883</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>692</v>
+        <v>709</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>693</v>
+        <v>710</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>694</v>
+        <v>711</v>
       </c>
       <c r="M26" s="7">
         <v>288</v>
@@ -9982,13 +10027,13 @@
         <v>351463</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>695</v>
+        <v>712</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>696</v>
+        <v>713</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>697</v>
+        <v>714</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10044,7 +10089,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -10056,13 +10101,13 @@
         <v>2779</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>698</v>
+        <v>124</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>160</v>
+        <v>626</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>699</v>
+        <v>715</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -10077,7 +10122,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>700</v>
+        <v>716</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -10086,13 +10131,13 @@
         <v>2779</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>701</v>
+        <v>717</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>702</v>
+        <v>718</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>703</v>
+        <v>719</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10107,13 +10152,13 @@
         <v>6764</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>704</v>
+        <v>720</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>705</v>
+        <v>370</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>706</v>
+        <v>721</v>
       </c>
       <c r="H29" s="7">
         <v>19</v>
@@ -10122,13 +10167,13 @@
         <v>14385</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>708</v>
+        <v>651</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -10137,13 +10182,13 @@
         <v>21148</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>648</v>
+        <v>458</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>710</v>
+        <v>87</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>711</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10158,13 +10203,13 @@
         <v>16922</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>713</v>
+        <v>519</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>714</v>
+        <v>725</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -10173,13 +10218,13 @@
         <v>17418</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>45</v>
+        <v>726</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>715</v>
+        <v>492</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>716</v>
+        <v>727</v>
       </c>
       <c r="M30" s="7">
         <v>37</v>
@@ -10188,13 +10233,13 @@
         <v>34340</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>717</v>
+        <v>728</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>275</v>
+        <v>729</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10209,13 +10254,13 @@
         <v>20828</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="H31" s="7">
         <v>56</v>
@@ -10224,13 +10269,13 @@
         <v>44946</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="M31" s="7">
         <v>77</v>
@@ -10239,13 +10284,13 @@
         <v>65774</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>399</v>
+        <v>737</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>725</v>
+        <v>738</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>726</v>
+        <v>739</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10260,13 +10305,13 @@
         <v>151238</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>727</v>
+        <v>740</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>728</v>
+        <v>741</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>729</v>
+        <v>742</v>
       </c>
       <c r="H32" s="7">
         <v>319</v>
@@ -10275,13 +10320,13 @@
         <v>226166</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>730</v>
+        <v>743</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>731</v>
+        <v>744</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>732</v>
+        <v>745</v>
       </c>
       <c r="M32" s="7">
         <v>478</v>
@@ -10290,13 +10335,13 @@
         <v>377404</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>733</v>
+        <v>746</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>734</v>
+        <v>747</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>735</v>
+        <v>748</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10364,13 +10409,13 @@
         <v>5206</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>736</v>
+        <v>749</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>737</v>
+        <v>750</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>107</v>
+        <v>751</v>
       </c>
       <c r="H34" s="7">
         <v>5</v>
@@ -10379,13 +10424,13 @@
         <v>4276</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>184</v>
+        <v>368</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>738</v>
+        <v>752</v>
       </c>
       <c r="M34" s="7">
         <v>11</v>
@@ -10394,13 +10439,13 @@
         <v>9483</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>739</v>
+        <v>753</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>341</v>
+        <v>754</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10415,13 +10460,13 @@
         <v>19798</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>740</v>
+        <v>755</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>330</v>
+        <v>756</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>741</v>
+        <v>757</v>
       </c>
       <c r="H35" s="7">
         <v>44</v>
@@ -10430,13 +10475,13 @@
         <v>31545</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>742</v>
+        <v>48</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>743</v>
+        <v>758</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="M35" s="7">
         <v>65</v>
@@ -10445,13 +10490,13 @@
         <v>51343</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>745</v>
+        <v>74</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>746</v>
+        <v>760</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>148</v>
+        <v>761</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10466,13 +10511,13 @@
         <v>35502</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>747</v>
+        <v>762</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>748</v>
+        <v>627</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>749</v>
+        <v>763</v>
       </c>
       <c r="H36" s="7">
         <v>50</v>
@@ -10481,13 +10526,13 @@
         <v>41958</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>750</v>
+        <v>249</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>751</v>
+        <v>764</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>752</v>
+        <v>159</v>
       </c>
       <c r="M36" s="7">
         <v>83</v>
@@ -10496,13 +10541,13 @@
         <v>77460</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>610</v>
+        <v>463</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10517,13 +10562,13 @@
         <v>128800</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>172</v>
+        <v>768</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>756</v>
+        <v>349</v>
       </c>
       <c r="H37" s="7">
         <v>254</v>
@@ -10532,13 +10577,13 @@
         <v>179048</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>13</v>
+        <v>770</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="M37" s="7">
         <v>376</v>
@@ -10547,13 +10592,13 @@
         <v>307848</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>459</v>
+        <v>773</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>760</v>
+        <v>774</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10568,13 +10613,13 @@
         <v>495947</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>761</v>
+        <v>775</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>762</v>
+        <v>776</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>763</v>
+        <v>777</v>
       </c>
       <c r="H38" s="7">
         <v>960</v>
@@ -10583,13 +10628,13 @@
         <v>764937</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>764</v>
+        <v>778</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>765</v>
+        <v>779</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>766</v>
+        <v>780</v>
       </c>
       <c r="M38" s="7">
         <v>1472</v>
@@ -10598,13 +10643,13 @@
         <v>1260884</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>767</v>
+        <v>781</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>768</v>
+        <v>783</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10660,7 +10705,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21B-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A0DC06C-9651-459A-BCDF-5D5C7ABE6C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAED81D0-2257-4E0B-9356-7AB6994258DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0ACE173B-97E9-412C-A53A-B21A46CCEBC4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C6B9CD0F-DAA4-463D-9DA0-D03F3E0924D8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="772">
   <si>
     <t>Población según tipo de servicio de urgencias utilizado en 2007 (Tasa respuesta: 20,73%)</t>
   </si>
@@ -95,13 +95,13 @@
     <t>3,83%</t>
   </si>
   <si>
-    <t>16,92%</t>
+    <t>19,27%</t>
   </si>
   <si>
     <t>2,22%</t>
   </si>
   <si>
-    <t>11,56%</t>
+    <t>11,4%</t>
   </si>
   <si>
     <t>Un servicio privado urgencia</t>
@@ -113,2284 +113,2248 @@
     <t>39,48%</t>
   </si>
   <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
   </si>
   <si>
     <t>25,96%</t>
   </si>
   <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
   </si>
   <si>
     <t>31,63%</t>
   </si>
   <si>
-    <t>18,77%</t>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>Un hospital de la Seguridad Social/S.A.S. (Servicio Andaluz</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según tipo de servicio de urgencias utilizado en 2012 (Tasa respuesta: 24,07%)</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>Población según tipo de servicio de urgencias utilizado en 2016 (Tasa respuesta: 18,48%)</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
   </si>
   <si>
     <t>49,45%</t>
   </si>
   <si>
-    <t>Un hospital de la Seguridad Social/S.A.S. (Servicio Andaluz</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>Población según tipo de servicio de urgencias utilizado en 2023 (Tasa respuesta: 22,96%)</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
   </si>
   <si>
     <t>3,01%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según tipo de servicio de urgencias utilizado en 2012 (Tasa respuesta: 24,07%)</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
   </si>
   <si>
     <t>4,11%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>Población según tipo de servicio de urgencias utilizado en 2016 (Tasa respuesta: 18,48%)</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>Población según tipo de servicio de urgencias utilizado en 2023 (Tasa respuesta: 22,96%)</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>5,84%</t>
+    <t>5,9%</t>
   </si>
   <si>
     <t>18,8%</t>
   </si>
   <si>
-    <t>15,55%</t>
+    <t>22,27%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
+    <t>20,66%</t>
   </si>
   <si>
     <t>18,03%</t>
   </si>
   <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
   </si>
   <si>
     <t>72,37%</t>
   </si>
   <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
   </si>
   <si>
     <t>74,86%</t>
   </si>
   <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
   </si>
   <si>
     <t>73,86%</t>
   </si>
   <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
+    <t>79,72%</t>
   </si>
 </sst>
 </file>
@@ -2802,7 +2766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6121D42B-9D94-4310-A986-29746E8C0EAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E853BD-A051-45EA-840C-B556777E0C26}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3408,7 +3372,7 @@
         <v>55</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -3417,13 +3381,13 @@
         <v>64456</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3402,13 @@
         <v>65671</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H14" s="7">
         <v>77</v>
@@ -3453,13 +3417,13 @@
         <v>78619</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M14" s="7">
         <v>143</v>
@@ -3468,13 +3432,13 @@
         <v>144290</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,7 +3494,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3548,7 +3512,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3563,7 +3527,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3578,7 +3542,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,13 +3557,13 @@
         <v>1071</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -3608,13 +3572,13 @@
         <v>3332</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -3623,13 +3587,13 @@
         <v>4403</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,13 +3608,13 @@
         <v>2136</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -3659,13 +3623,13 @@
         <v>3562</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -3674,13 +3638,13 @@
         <v>5698</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,13 +3659,13 @@
         <v>55116</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H19" s="7">
         <v>101</v>
@@ -3710,13 +3674,13 @@
         <v>105933</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M19" s="7">
         <v>152</v>
@@ -3725,13 +3689,13 @@
         <v>161050</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,13 +3710,13 @@
         <v>127293</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H20" s="7">
         <v>161</v>
@@ -3761,13 +3725,13 @@
         <v>171105</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>279</v>
@@ -3776,13 +3740,13 @@
         <v>298397</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,7 +3802,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3856,7 +3820,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -3865,13 +3829,13 @@
         <v>740</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -3880,13 +3844,13 @@
         <v>740</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,13 +3865,13 @@
         <v>3751</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -3916,13 +3880,13 @@
         <v>2496</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -3931,13 +3895,13 @@
         <v>6246</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,13 +3916,13 @@
         <v>7263</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -3967,13 +3931,13 @@
         <v>5737</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="M24" s="7">
         <v>12</v>
@@ -3982,13 +3946,13 @@
         <v>13000</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4003,13 +3967,13 @@
         <v>18740</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H25" s="7">
         <v>43</v>
@@ -4018,13 +3982,13 @@
         <v>41295</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="M25" s="7">
         <v>63</v>
@@ -4033,13 +3997,13 @@
         <v>60035</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,13 +4018,13 @@
         <v>93901</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H26" s="7">
         <v>128</v>
@@ -4069,13 +4033,13 @@
         <v>126271</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M26" s="7">
         <v>216</v>
@@ -4084,13 +4048,13 @@
         <v>220172</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,7 +4110,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4158,13 +4122,13 @@
         <v>838</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -4173,13 +4137,13 @@
         <v>2149</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -4188,13 +4152,13 @@
         <v>2988</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,13 +4173,13 @@
         <v>5370</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -4224,13 +4188,13 @@
         <v>6954</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -4239,13 +4203,13 @@
         <v>12325</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,13 +4224,13 @@
         <v>3191</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -4275,13 +4239,13 @@
         <v>897</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M30" s="7">
         <v>4</v>
@@ -4290,13 +4254,13 @@
         <v>4088</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,13 +4275,13 @@
         <v>28057</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H31" s="7">
         <v>40</v>
@@ -4326,13 +4290,13 @@
         <v>41695</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="M31" s="7">
         <v>69</v>
@@ -4341,13 +4305,13 @@
         <v>69751</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,13 +4326,13 @@
         <v>98937</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H32" s="7">
         <v>167</v>
@@ -4377,13 +4341,13 @@
         <v>175748</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M32" s="7">
         <v>274</v>
@@ -4392,13 +4356,13 @@
         <v>274686</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,13 +4430,13 @@
         <v>2686</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -4481,13 +4445,13 @@
         <v>2889</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M34" s="7">
         <v>6</v>
@@ -4496,13 +4460,13 @@
         <v>5575</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,13 +4481,13 @@
         <v>10192</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H35" s="7">
         <v>13</v>
@@ -4532,13 +4496,13 @@
         <v>13633</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>199</v>
+        <v>75</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>87</v>
+        <v>194</v>
       </c>
       <c r="M35" s="7">
         <v>23</v>
@@ -4547,13 +4511,13 @@
         <v>23825</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>201</v>
+        <v>119</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4568,13 +4532,13 @@
         <v>12590</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H36" s="7">
         <v>10</v>
@@ -4583,13 +4547,13 @@
         <v>10196</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="M36" s="7">
         <v>21</v>
@@ -4598,13 +4562,13 @@
         <v>22786</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4619,13 +4583,13 @@
         <v>137445</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H37" s="7">
         <v>226</v>
@@ -4634,13 +4598,13 @@
         <v>229958</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M37" s="7">
         <v>361</v>
@@ -4649,13 +4613,13 @@
         <v>367403</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,13 +4634,13 @@
         <v>395532</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H38" s="7">
         <v>551</v>
@@ -4685,13 +4649,13 @@
         <v>567334</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="M38" s="7">
         <v>939</v>
@@ -4700,13 +4664,13 @@
         <v>962865</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,7 +4726,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -4783,7 +4747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F34627-A572-447D-936A-68A53D5DE1BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71BDDEC-F8B1-44AC-9E37-4FABF6EFE197}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4800,7 +4764,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4913,7 +4877,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4928,7 +4892,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4943,7 +4907,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4964,7 +4928,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4979,7 +4943,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4994,7 +4958,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,7 +4979,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5030,7 +4994,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5045,7 +5009,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5060,13 +5024,13 @@
         <v>8695</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -5075,13 +5039,13 @@
         <v>7217</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -5090,13 +5054,13 @@
         <v>15913</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,13 +5075,13 @@
         <v>19490</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -5126,13 +5090,13 @@
         <v>21313</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M8" s="7">
         <v>39</v>
@@ -5141,13 +5105,13 @@
         <v>40802</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,13 +5179,13 @@
         <v>916</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5236,7 +5200,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -5245,13 +5209,13 @@
         <v>916</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5272,7 +5236,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -5281,13 +5245,13 @@
         <v>1039</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>205</v>
+        <v>249</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -5296,13 +5260,13 @@
         <v>1039</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,13 +5281,13 @@
         <v>4082</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -5332,13 +5296,13 @@
         <v>1886</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>201</v>
+        <v>119</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -5347,13 +5311,13 @@
         <v>5967</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,13 +5332,13 @@
         <v>36894</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -5383,13 +5347,13 @@
         <v>49190</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M13" s="7">
         <v>84</v>
@@ -5398,13 +5362,13 @@
         <v>86084</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,13 +5383,13 @@
         <v>71347</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H14" s="7">
         <v>105</v>
@@ -5434,13 +5398,13 @@
         <v>112742</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M14" s="7">
         <v>170</v>
@@ -5449,13 +5413,13 @@
         <v>184089</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,7 +5475,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5544,7 +5508,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5559,7 +5523,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,7 +5559,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5610,7 +5574,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,10 +5592,10 @@
         <v>44</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>187</v>
+        <v>278</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -5640,13 +5604,13 @@
         <v>1064</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -5655,13 +5619,13 @@
         <v>5441</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,13 +5640,13 @@
         <v>109556</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H19" s="7">
         <v>113</v>
@@ -5691,13 +5655,13 @@
         <v>126303</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M19" s="7">
         <v>212</v>
@@ -5706,13 +5670,13 @@
         <v>235859</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +5691,13 @@
         <v>114976</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H20" s="7">
         <v>155</v>
@@ -5742,13 +5706,13 @@
         <v>171949</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M20" s="7">
         <v>263</v>
@@ -5757,13 +5721,13 @@
         <v>286925</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,7 +5783,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5831,13 +5795,13 @@
         <v>1086</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5852,7 +5816,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -5861,13 +5825,13 @@
         <v>1086</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>307</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,13 +5846,13 @@
         <v>984</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -5897,13 +5861,13 @@
         <v>7140</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -5912,13 +5876,13 @@
         <v>8124</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>154</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,13 +5897,13 @@
         <v>3841</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -5948,13 +5912,13 @@
         <v>3057</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -5963,13 +5927,13 @@
         <v>6898</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,13 +5948,13 @@
         <v>57250</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H25" s="7">
         <v>68</v>
@@ -5999,13 +5963,13 @@
         <v>71609</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M25" s="7">
         <v>119</v>
@@ -6014,13 +5978,13 @@
         <v>128859</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,13 +5999,13 @@
         <v>118661</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H26" s="7">
         <v>163</v>
@@ -6050,13 +6014,13 @@
         <v>176209</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="M26" s="7">
         <v>273</v>
@@ -6065,13 +6029,13 @@
         <v>294870</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>337</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>274</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6127,7 +6091,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6145,7 +6109,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>158</v>
+        <v>337</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6175,7 +6139,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,13 +6154,13 @@
         <v>2848</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -6205,13 +6169,13 @@
         <v>7589</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>253</v>
+        <v>342</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>107</v>
+        <v>343</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
@@ -6220,13 +6184,13 @@
         <v>10437</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,7 +6211,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>158</v>
+        <v>337</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -6256,13 +6220,13 @@
         <v>8831</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M30" s="7">
         <v>8</v>
@@ -6271,13 +6235,13 @@
         <v>8831</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>348</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6292,13 +6256,13 @@
         <v>34151</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H31" s="7">
         <v>48</v>
@@ -6307,13 +6271,13 @@
         <v>49635</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M31" s="7">
         <v>80</v>
@@ -6322,13 +6286,13 @@
         <v>83785</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6343,13 +6307,13 @@
         <v>114450</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>358</v>
+        <v>96</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>224</v>
+        <v>360</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H32" s="7">
         <v>153</v>
@@ -6358,13 +6322,13 @@
         <v>160572</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M32" s="7">
         <v>265</v>
@@ -6373,13 +6337,13 @@
         <v>275022</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>364</v>
+        <v>219</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6447,13 +6411,13 @@
         <v>2002</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>284</v>
+        <v>368</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6468,7 +6432,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -6477,13 +6441,13 @@
         <v>2002</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>108</v>
+        <v>371</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6498,13 +6462,13 @@
         <v>3832</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>193</v>
+        <v>372</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>369</v>
+        <v>107</v>
       </c>
       <c r="H35" s="7">
         <v>14</v>
@@ -6513,13 +6477,13 @@
         <v>15768</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="M35" s="7">
         <v>18</v>
@@ -6528,13 +6492,13 @@
         <v>19599</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>312</v>
+        <v>375</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>195</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6549,13 +6513,13 @@
         <v>12299</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>373</v>
+        <v>47</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>320</v>
+        <v>377</v>
       </c>
       <c r="H36" s="7">
         <v>14</v>
@@ -6564,13 +6528,13 @@
         <v>14838</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M36" s="7">
         <v>25</v>
@@ -6579,13 +6543,13 @@
         <v>27137</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>377</v>
+        <v>201</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>163</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6600,13 +6564,13 @@
         <v>246546</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H37" s="7">
         <v>283</v>
@@ -6615,13 +6579,13 @@
         <v>303954</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="M37" s="7">
         <v>511</v>
@@ -6630,13 +6594,13 @@
         <v>550499</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6651,13 +6615,13 @@
         <v>438923</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H38" s="7">
         <v>595</v>
@@ -6666,13 +6630,13 @@
         <v>642785</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M38" s="7">
         <v>1010</v>
@@ -6681,13 +6645,13 @@
         <v>1081708</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>394</v>
+        <v>95</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6743,7 +6707,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -6764,7 +6728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D565EB96-2CE0-4583-9BB0-37515F1ED9CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38DA5EF6-5B75-436D-A10D-3171223B385E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6781,7 +6745,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6894,7 +6858,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6909,7 +6873,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6924,7 +6888,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6945,7 +6909,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6954,13 +6918,13 @@
         <v>1486</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -6969,13 +6933,13 @@
         <v>1486</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6996,7 +6960,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -7005,13 +6969,13 @@
         <v>2861</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -7020,13 +6984,13 @@
         <v>2861</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7041,13 +7005,13 @@
         <v>6547</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -7056,13 +7020,13 @@
         <v>4460</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>413</v>
+        <v>349</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -7071,13 +7035,13 @@
         <v>11006</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7092,13 +7056,13 @@
         <v>18066</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -7107,13 +7071,13 @@
         <v>13161</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>422</v>
+        <v>288</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M8" s="7">
         <v>29</v>
@@ -7122,13 +7086,13 @@
         <v>31226</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7196,13 +7160,13 @@
         <v>813</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7217,7 +7181,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -7226,13 +7190,13 @@
         <v>813</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7253,7 +7217,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -7262,13 +7226,13 @@
         <v>1762</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -7283,7 +7247,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7298,13 +7262,13 @@
         <v>1021</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -7313,13 +7277,13 @@
         <v>1076</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>196</v>
+        <v>435</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -7328,13 +7292,13 @@
         <v>2096</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7349,13 +7313,13 @@
         <v>27652</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -7364,13 +7328,13 @@
         <v>41033</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -7379,13 +7343,13 @@
         <v>68685</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7400,7 +7364,7 @@
         <v>47864</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>446</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>447</v>
@@ -7415,13 +7379,13 @@
         <v>72367</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>337</v>
+        <v>449</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M14" s="7">
         <v>117</v>
@@ -7430,13 +7394,13 @@
         <v>120230</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>63</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7492,7 +7456,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7504,13 +7468,13 @@
         <v>957</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>454</v>
+        <v>84</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7519,13 +7483,13 @@
         <v>946</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -7534,13 +7498,13 @@
         <v>1903</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>372</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7555,13 +7519,13 @@
         <v>2114</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -7570,13 +7534,13 @@
         <v>3808</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -7585,13 +7549,13 @@
         <v>5922</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>462</v>
+        <v>312</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>463</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7606,13 +7570,13 @@
         <v>14349</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>344</v>
+        <v>466</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -7621,13 +7585,13 @@
         <v>5571</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>196</v>
+        <v>368</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -7636,13 +7600,13 @@
         <v>19920</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>469</v>
+        <v>144</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7657,13 +7621,13 @@
         <v>49702</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H19" s="7">
         <v>64</v>
@@ -7672,13 +7636,13 @@
         <v>68492</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M19" s="7">
         <v>110</v>
@@ -7687,13 +7651,13 @@
         <v>118194</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7708,13 +7672,13 @@
         <v>104469</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>482</v>
+        <v>94</v>
       </c>
       <c r="H20" s="7">
         <v>121</v>
@@ -7800,7 +7764,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7818,7 +7782,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7833,7 +7797,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>489</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7848,7 +7812,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7863,13 +7827,13 @@
         <v>1016</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>204</v>
+        <v>491</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -7878,13 +7842,13 @@
         <v>8584</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -7893,13 +7857,13 @@
         <v>9600</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>370</v>
+        <v>496</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7914,13 +7878,13 @@
         <v>6137</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>495</v>
+        <v>104</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -7929,13 +7893,13 @@
         <v>4552</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>498</v>
+        <v>69</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -7944,13 +7908,13 @@
         <v>10689</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>161</v>
+        <v>461</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7965,13 +7929,13 @@
         <v>35403</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H25" s="7">
         <v>50</v>
@@ -7980,13 +7944,13 @@
         <v>53914</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="M25" s="7">
         <v>81</v>
@@ -7995,13 +7959,13 @@
         <v>89317</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8016,13 +7980,13 @@
         <v>83633</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="H26" s="7">
         <v>81</v>
@@ -8031,13 +7995,13 @@
         <v>86235</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>515</v>
+        <v>363</v>
       </c>
       <c r="M26" s="7">
         <v>158</v>
@@ -8046,13 +8010,13 @@
         <v>169867</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>452</v>
+        <v>518</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8108,7 +8072,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8120,13 +8084,13 @@
         <v>1851</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -8135,13 +8099,13 @@
         <v>1285</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>520</v>
+        <v>312</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -8150,13 +8114,13 @@
         <v>3137</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>113</v>
+        <v>523</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>166</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8171,13 +8135,13 @@
         <v>6954</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>44</v>
+        <v>525</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -8186,13 +8150,13 @@
         <v>13151</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>525</v>
+        <v>306</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="M29" s="7">
         <v>17</v>
@@ -8201,13 +8165,13 @@
         <v>20105</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>150</v>
+        <v>530</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8222,13 +8186,13 @@
         <v>4776</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>305</v>
+        <v>532</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>529</v>
+        <v>314</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -8237,13 +8201,13 @@
         <v>10141</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>428</v>
+        <v>535</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -8252,13 +8216,13 @@
         <v>14918</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>121</v>
+        <v>281</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8273,13 +8237,13 @@
         <v>21680</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="H31" s="7">
         <v>36</v>
@@ -8288,13 +8252,13 @@
         <v>38218</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>540</v>
+        <v>504</v>
       </c>
       <c r="M31" s="7">
         <v>58</v>
@@ -8303,13 +8267,13 @@
         <v>59898</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8324,13 +8288,13 @@
         <v>116466</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="H32" s="7">
         <v>166</v>
@@ -8339,13 +8303,13 @@
         <v>183143</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>548</v>
+        <v>94</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="M32" s="7">
         <v>278</v>
@@ -8354,13 +8318,13 @@
         <v>299609</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8428,13 +8392,13 @@
         <v>3621</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>118</v>
+        <v>318</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>107</v>
+        <v>556</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -8443,13 +8407,13 @@
         <v>2232</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>191</v>
+        <v>254</v>
       </c>
       <c r="M34" s="7">
         <v>6</v>
@@ -8458,13 +8422,13 @@
         <v>5852</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>78</v>
+        <v>435</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8479,13 +8443,13 @@
         <v>10084</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>50</v>
+        <v>191</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>556</v>
+        <v>48</v>
       </c>
       <c r="H35" s="7">
         <v>25</v>
@@ -8494,13 +8458,13 @@
         <v>28791</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>436</v>
+        <v>559</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>376</v>
+        <v>560</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="M35" s="7">
         <v>35</v>
@@ -8509,13 +8473,13 @@
         <v>38875</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>469</v>
+        <v>562</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>558</v>
+        <v>113</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8530,13 +8494,13 @@
         <v>26283</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>561</v>
+        <v>319</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="H36" s="7">
         <v>23</v>
@@ -8545,13 +8509,13 @@
         <v>24200</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>431</v>
+        <v>566</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="M36" s="7">
         <v>46</v>
@@ -8560,13 +8524,13 @@
         <v>50483</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>527</v>
+        <v>570</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8581,13 +8545,13 @@
         <v>140982</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="H37" s="7">
         <v>197</v>
@@ -8596,13 +8560,13 @@
         <v>206117</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="M37" s="7">
         <v>329</v>
@@ -8611,13 +8575,13 @@
         <v>347099</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>572</v>
+        <v>261</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8632,13 +8596,13 @@
         <v>370496</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="H38" s="7">
         <v>450</v>
@@ -8647,13 +8611,13 @@
         <v>487966</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="M38" s="7">
         <v>798</v>
@@ -8662,13 +8626,13 @@
         <v>858462</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8724,7 +8688,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -8745,7 +8709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAEB5-1EFC-4222-8A85-AD8722F67E2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F193D7F-9718-4A52-81AF-60563A3B592C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8762,7 +8726,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8875,7 +8839,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8890,7 +8854,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8905,7 +8869,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>521</v>
+        <v>569</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8920,13 +8884,13 @@
         <v>913</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -8935,13 +8899,13 @@
         <v>346</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>495</v>
+        <v>252</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -8950,13 +8914,13 @@
         <v>1259</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8971,13 +8935,13 @@
         <v>460</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -8986,13 +8950,13 @@
         <v>756</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>122</v>
+        <v>598</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -9001,13 +8965,13 @@
         <v>1216</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>595</v>
+        <v>490</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9022,13 +8986,13 @@
         <v>2867</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>154</v>
+        <v>559</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -9037,13 +9001,13 @@
         <v>1685</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>600</v>
+        <v>525</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -9052,13 +9016,13 @@
         <v>4551</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9073,13 +9037,13 @@
         <v>15669</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="H8" s="7">
         <v>36</v>
@@ -9088,13 +9052,13 @@
         <v>18130</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="M8" s="7">
         <v>54</v>
@@ -9103,13 +9067,13 @@
         <v>33800</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9183,7 +9147,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -9192,13 +9156,13 @@
         <v>1961</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>615</v>
+        <v>259</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -9207,13 +9171,13 @@
         <v>1961</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>305</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9228,13 +9192,13 @@
         <v>736</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>256</v>
+        <v>619</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -9243,13 +9207,13 @@
         <v>2046</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>617</v>
+        <v>556</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>618</v>
+        <v>371</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>619</v>
+        <v>534</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -9282,10 +9246,10 @@
         <v>623</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>495</v>
+        <v>624</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -9294,13 +9258,13 @@
         <v>2110</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>625</v>
+        <v>343</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>626</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -9473,7 +9437,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -9485,7 +9449,7 @@
         <v>2428</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>648</v>
@@ -9506,7 +9470,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>251</v>
+        <v>190</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -9515,13 +9479,13 @@
         <v>3224</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>319</v>
+        <v>650</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9536,13 +9500,13 @@
         <v>6163</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>652</v>
+        <v>201</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>653</v>
+        <v>403</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -9551,13 +9515,13 @@
         <v>5469</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>654</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>655</v>
+        <v>379</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>656</v>
+        <v>256</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -9566,13 +9530,13 @@
         <v>11632</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>628</v>
+        <v>433</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>458</v>
+        <v>654</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9587,13 +9551,13 @@
         <v>4414</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>658</v>
+        <v>281</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>489</v>
+        <v>655</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -9602,13 +9566,13 @@
         <v>8858</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>660</v>
+        <v>343</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>661</v>
+        <v>159</v>
       </c>
       <c r="M18" s="7">
         <v>15</v>
@@ -9617,13 +9581,13 @@
         <v>13272</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>495</v>
+        <v>317</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>663</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9638,13 +9602,13 @@
         <v>56926</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>665</v>
+        <v>546</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="H19" s="7">
         <v>96</v>
@@ -9653,13 +9617,13 @@
         <v>63385</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="M19" s="7">
         <v>141</v>
@@ -9668,13 +9632,13 @@
         <v>120311</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9689,13 +9653,13 @@
         <v>146068</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>673</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>675</v>
+        <v>238</v>
       </c>
       <c r="H20" s="7">
         <v>252</v>
@@ -9704,13 +9668,13 @@
         <v>178790</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="M20" s="7">
         <v>401</v>
@@ -9719,13 +9683,13 @@
         <v>324858</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9781,7 +9745,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -9799,7 +9763,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -9808,13 +9772,13 @@
         <v>1519</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>49</v>
+        <v>675</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -9823,13 +9787,13 @@
         <v>1519</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>685</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9844,13 +9808,13 @@
         <v>5222</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>83</v>
+        <v>496</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -9859,13 +9823,13 @@
         <v>9300</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>469</v>
+        <v>562</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>78</v>
+        <v>375</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>688</v>
+        <v>115</v>
       </c>
       <c r="M23" s="7">
         <v>19</v>
@@ -9874,13 +9838,13 @@
         <v>14522</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>689</v>
+        <v>530</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>111</v>
+        <v>620</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9895,13 +9859,13 @@
         <v>7263</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -9910,13 +9874,13 @@
         <v>12815</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>426</v>
+        <v>683</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -9925,13 +9889,13 @@
         <v>20078</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>695</v>
+        <v>190</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9946,13 +9910,13 @@
         <v>23088</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="H25" s="7">
         <v>58</v>
@@ -9961,13 +9925,13 @@
         <v>41905</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="M25" s="7">
         <v>82</v>
@@ -9976,13 +9940,13 @@
         <v>64993</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9997,13 +9961,13 @@
         <v>105580</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="H26" s="7">
         <v>192</v>
@@ -10012,13 +9976,13 @@
         <v>245883</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="M26" s="7">
         <v>288</v>
@@ -10027,13 +9991,13 @@
         <v>351463</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10089,7 +10053,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -10101,13 +10065,13 @@
         <v>2779</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>124</v>
+        <v>704</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>626</v>
+        <v>160</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -10122,7 +10086,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>716</v>
+        <v>462</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -10131,13 +10095,13 @@
         <v>2779</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10152,13 +10116,13 @@
         <v>6764</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>720</v>
+        <v>145</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>370</v>
+        <v>709</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>721</v>
+        <v>344</v>
       </c>
       <c r="H29" s="7">
         <v>19</v>
@@ -10167,13 +10131,13 @@
         <v>14385</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>651</v>
+        <v>711</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -10182,13 +10146,13 @@
         <v>21148</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>458</v>
+        <v>654</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>87</v>
+        <v>713</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>433</v>
+        <v>714</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10203,13 +10167,13 @@
         <v>16922</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -10218,13 +10182,13 @@
         <v>17418</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>492</v>
+        <v>718</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="M30" s="7">
         <v>37</v>
@@ -10233,13 +10197,13 @@
         <v>34340</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>729</v>
+        <v>498</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10254,13 +10218,13 @@
         <v>20828</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>733</v>
+        <v>131</v>
       </c>
       <c r="H31" s="7">
         <v>56</v>
@@ -10269,13 +10233,13 @@
         <v>44946</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="M31" s="7">
         <v>77</v>
@@ -10284,13 +10248,13 @@
         <v>65774</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10305,13 +10269,13 @@
         <v>151238</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="H32" s="7">
         <v>319</v>
@@ -10320,13 +10284,13 @@
         <v>226166</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="M32" s="7">
         <v>478</v>
@@ -10335,13 +10299,13 @@
         <v>377404</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10409,13 +10373,13 @@
         <v>5206</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>751</v>
+        <v>104</v>
       </c>
       <c r="H34" s="7">
         <v>5</v>
@@ -10424,13 +10388,13 @@
         <v>4276</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>368</v>
+        <v>183</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="M34" s="7">
         <v>11</v>
@@ -10439,13 +10403,13 @@
         <v>9483</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10460,13 +10424,13 @@
         <v>19798</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>756</v>
+        <v>339</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="H35" s="7">
         <v>44</v>
@@ -10478,10 +10442,10 @@
         <v>48</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="M35" s="7">
         <v>65</v>
@@ -10490,13 +10454,13 @@
         <v>51343</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>74</v>
+        <v>748</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>760</v>
+        <v>535</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>761</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10511,13 +10475,13 @@
         <v>35502</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>627</v>
+        <v>750</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="H36" s="7">
         <v>50</v>
@@ -10526,13 +10490,13 @@
         <v>41958</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>249</v>
+        <v>752</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>159</v>
+        <v>754</v>
       </c>
       <c r="M36" s="7">
         <v>83</v>
@@ -10541,13 +10505,13 @@
         <v>77460</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>463</v>
+        <v>619</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10562,13 +10526,13 @@
         <v>128800</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>768</v>
+        <v>542</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>349</v>
+        <v>758</v>
       </c>
       <c r="H37" s="7">
         <v>254</v>
@@ -10577,13 +10541,13 @@
         <v>179048</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>770</v>
+        <v>13</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="M37" s="7">
         <v>376</v>
@@ -10592,13 +10556,13 @@
         <v>307848</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10613,13 +10577,13 @@
         <v>495947</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="H38" s="7">
         <v>960</v>
@@ -10628,13 +10592,13 @@
         <v>764937</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="M38" s="7">
         <v>1472</v>
@@ -10643,13 +10607,13 @@
         <v>1260884</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>782</v>
+        <v>362</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10705,7 +10669,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
